--- a/Priyadharshini .S ( Excel ).xlsx
+++ b/Priyadharshini .S ( Excel ).xlsx
@@ -7,11 +7,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hU0J4ZFrdpR7ewj2uFa0fz9nUHQI9KAB/XgNb0XDCmI="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t xml:space="preserve"> DATA</t>
   </si>
@@ -203,13 +208,16 @@
   </si>
   <si>
     <t>esteban.gilbert@bilearner.com</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -237,6 +245,10 @@
       <sz val="11.0"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -297,6 +309,9 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,19 +327,53 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4362450" cy="2886075"/>
+    <xdr:ext cx="3714750" cy="3000375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="212694270" name="Chart1" title="Chart">
+          <a:extLst>
+            <a:ext uri="GoogleSheetsCustomDataVersion1">
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6467475</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4362450" cy="3000375"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="Chart"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1062,7 +1111,11 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="54" ht="15.75" customHeight="1"/>
     <row r="55" ht="15.75" customHeight="1"/>
     <row r="56" ht="15.75" customHeight="1"/>
@@ -1070,7 +1123,7 @@
     <row r="58" ht="15.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="F60" s="10"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" ht="15.75" customHeight="1"/>
     <row r="62" ht="15.75" customHeight="1"/>
